--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Habitat-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,14</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,72</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,39</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>12,6</t>
+          <t>6,21</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,59</t>
+          <t>-2,45; 1,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,75</t>
+          <t>2,9; 7,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,37</t>
+          <t>-2,22; 4,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,5</t>
+          <t>2,69; 9,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 12,57</t>
+          <t>-1,51; 2,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,51; 17,93</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>5,17; 7,78</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 8,2</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>10,88; 14,15</t>
+          <t>4,16; 8,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>145,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>97,14%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,26; 56,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,89; 281,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,39; 57,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,85; 123,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,99; 38,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>58,27; 158,07</t>
         </is>
       </c>
     </row>
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,52</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,59</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>9,42</t>
+          <t>3,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,61</t>
+          <t>-1,97; 1,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,1</t>
+          <t>-1,05; 4,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,24</t>
+          <t>-2,93; 2,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,66</t>
+          <t>3,17; 8,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 10,09</t>
+          <t>-2,06; 0,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 16,26</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 7,28</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 6,78</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 11,02</t>
+          <t>0,14; 5,19</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>59,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-6,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>65,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-7,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>55,18%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,85; 49,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,47; 145,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,28; 28,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,85; 108,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,13; 16,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>4,73; 95,4</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,04</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,29</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8,42</t>
+          <t>2,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,37</t>
+          <t>-2,92; 0,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,28</t>
+          <t>0,23; 4,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,68</t>
+          <t>-3,36; 2,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,47</t>
+          <t>-3,78; 5,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,13</t>
+          <t>-2,63; 0,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 13,55</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>4,9; 7,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 6,63</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5,59; 10,21</t>
+          <t>-0,91; 4,42</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-25,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-7,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>39,39%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,23; 35,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 170,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,24; 31,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,81; 69,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,86; 17,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-12,46; 83,45</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,74</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>7,28</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>11,68</t>
+          <t>4,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,28</t>
+          <t>-2,02; 1,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,81</t>
+          <t>1,17; 5,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,38</t>
+          <t>-3,28; 1,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,51</t>
+          <t>1,04; 8,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,99</t>
+          <t>-2,12; 1,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,88; 18,15</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 8,48</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,75; 8,14</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>10,08; 12,96</t>
+          <t>2,51; 6,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>60,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,25; 57,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,82; 188,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,86; 22,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,08; 87,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,32; 20,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>29,47; 99,25</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,94</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>10,43</t>
+          <t>3,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,36</t>
+          <t>-1,29; 0,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,81</t>
+          <t>1,39; 4,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,68</t>
+          <t>-1,6; 1,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,44</t>
+          <t>1,63; 6,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,95; 10,02</t>
+          <t>-1,22; 0,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,39</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 7,12</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 6,72</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 11,35</t>
+          <t>2,53; 5,01</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,43%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>86,69%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,37%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>61,08%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,8; 15,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,77; 134,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,37; 13,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,52; 72,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; 8,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>37,56; 82,08</t>
         </is>
       </c>
     </row>
@@ -1709,11 +1378,11 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
